--- a/2. Fase 1 Análisis/Actividad de Proyecto 2/1n02nCrononAP02n2758324n25___6164d15fe4ab433___.xlsx
+++ b/2. Fase 1 Análisis/Actividad de Proyecto 2/1n02nCrononAP02n2758324n25___6164d15fe4ab433___.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEMORIA\SENA\2023\TITULADA VIRTUAL\ADSO\CRONOGRAMAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\PORTAFOLIO-SENA-ADSO-2758324\2. Fase 1 Análisis\Actividad de Proyecto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5610BA-EB41-4541-8592-80E2E1E85084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D159BDA2-50EB-4014-9CFB-28765C879D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="11295" xr2:uid="{0DA34D87-7905-4251-B4C9-2D00D8C567B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0DA34D87-7905-4251-B4C9-2D00D8C567B5}"/>
   </bookViews>
   <sheets>
     <sheet name="CRON. GRAL 2758324 25 🗓️" sheetId="1" r:id="rId1"/>
@@ -1248,9 +1248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1318,7 +1315,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1355,6 +1352,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -1577,7 +1580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,6 +1601,33 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1613,16 +1643,16 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1652,38 +1682,17 @@
     <xf numFmtId="1" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2059,130 +2068,130 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I20"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.25" style="1"/>
-    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" customWidth="1"/>
-    <col min="9" max="9" width="41.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.08203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.08203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.58203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="11.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:13" ht="25" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:13" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:13" ht="25" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:13" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="34" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+    <row r="6" spans="1:13" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2192,11 +2201,11 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2207,23 +2216,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="77.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:13" ht="76" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="35">
         <v>45145</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="35">
         <v>45221</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -2232,79 +2241,79 @@
       <c r="H7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="37" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="22">
         <v>45145</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="24">
         <v>45221</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="28"/>
+    <row r="8" spans="1:13" ht="63" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="38" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="15"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="28"/>
+    <row r="9" spans="1:13" ht="38" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="15"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="24"/>
     </row>
-    <row r="10" spans="1:13" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="28" t="s">
+    <row r="10" spans="1:13" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -2313,36 +2322,36 @@
       <c r="J10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="15"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+    <row r="11" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="15"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="1:13" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="28"/>
+    <row r="12" spans="1:13" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="5" t="s">
         <v>39</v>
       </c>
@@ -2355,17 +2364,17 @@
       <c r="J12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="15"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:13" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="28"/>
+    <row r="13" spans="1:13" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
         <v>43</v>
       </c>
@@ -2378,17 +2387,17 @@
       <c r="J13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="15"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="28" t="s">
+    <row r="14" spans="1:13" ht="88" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -2403,17 +2412,17 @@
       <c r="J14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="15"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="28"/>
+    <row r="15" spans="1:13" ht="75.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="5" t="s">
         <v>52</v>
       </c>
@@ -2426,17 +2435,17 @@
       <c r="J15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="15"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:13" ht="74.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="28"/>
+    <row r="16" spans="1:13" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="5" t="s">
         <v>56</v>
       </c>
@@ -2449,17 +2458,17 @@
       <c r="J16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="15"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" ht="86.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="28"/>
+    <row r="17" spans="1:13" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="5" t="s">
         <v>60</v>
       </c>
@@ -2472,23 +2481,23 @@
       <c r="J17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="15"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="24"/>
     </row>
-    <row r="18" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="8" t="s">
+    <row r="18" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="17" t="s">
         <v>65</v>
       </c>
       <c r="I18" s="6" t="s">
@@ -2497,51 +2506,65 @@
       <c r="J18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="15"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="9"/>
+    <row r="19" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="6" t="s">
         <v>70</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="15"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="10"/>
+    <row r="20" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="7" t="s">
         <v>71</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="16"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="25"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:13" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="L7:L20"/>
+    <mergeCell ref="M7:M20"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="C7:C20"/>
+    <mergeCell ref="D7:D20"/>
+    <mergeCell ref="E7:E20"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F20"/>
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
@@ -2558,20 +2581,6 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="K7:K20"/>
-    <mergeCell ref="L7:L20"/>
-    <mergeCell ref="M7:M20"/>
-    <mergeCell ref="A7:A20"/>
-    <mergeCell ref="B7:B20"/>
-    <mergeCell ref="C7:C20"/>
-    <mergeCell ref="D7:D20"/>
-    <mergeCell ref="E7:E20"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/2. Fase 1 Análisis/Actividad de Proyecto 2/1n02nCrononAP02n2758324n25___6164d15fe4ab433___.xlsx
+++ b/2. Fase 1 Análisis/Actividad de Proyecto 2/1n02nCrononAP02n2758324n25___6164d15fe4ab433___.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\PORTAFOLIO-SENA-ADSO-2758324\2. Fase 1 Análisis\Actividad de Proyecto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D159BDA2-50EB-4014-9CFB-28765C879D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB330D3-6607-4F83-8CCE-77ECEF8A4E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0DA34D87-7905-4251-B4C9-2D00D8C567B5}"/>
   </bookViews>
@@ -1601,9 +1601,69 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1628,71 +1688,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2068,8 +2068,8 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="G9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2089,109 +2089,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="25" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2201,11 +2201,11 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2217,22 +2217,22 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="76" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="23">
         <v>45145</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="23">
         <v>45221</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="24" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -2241,117 +2241,117 @@
       <c r="H7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="10">
         <v>45145</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="12">
         <v>45221</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="63" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="24"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="38" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="25"/>
+      <c r="I9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="24"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="8" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="24"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="24"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="5" t="s">
         <v>39</v>
       </c>
@@ -2364,17 +2364,17 @@
       <c r="J12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="24"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="5" t="s">
         <v>43</v>
       </c>
@@ -2387,17 +2387,17 @@
       <c r="J13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="24"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="88" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="8" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="25" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -2412,17 +2412,17 @@
       <c r="J14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="24"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="75.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="5" t="s">
         <v>52</v>
       </c>
@@ -2435,17 +2435,17 @@
       <c r="J15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="24"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="5" t="s">
         <v>56</v>
       </c>
@@ -2458,17 +2458,17 @@
       <c r="J16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="24"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="5" t="s">
         <v>60</v>
       </c>
@@ -2481,23 +2481,23 @@
       <c r="J17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="24"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="17" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="26" t="s">
         <v>65</v>
       </c>
       <c r="I18" s="6" t="s">
@@ -2506,51 +2506,65 @@
       <c r="J18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="24"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="18"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="6" t="s">
         <v>70</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="24"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="7" t="s">
         <v>71</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="25"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="K7:K20"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="L7:L20"/>
     <mergeCell ref="M7:M20"/>
     <mergeCell ref="A7:A20"/>
@@ -2566,21 +2580,7 @@
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
     <mergeCell ref="H18:H20"/>
-    <mergeCell ref="K7:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
